--- a/docs/Q&A.xlsx
+++ b/docs/Q&A.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Reject ยังต้องทำไหม</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>สภาพแวดล้อมของอุปกรณ์ที่ต้องการตรวจสอบ คืออะไร ต้องการข้อมูลอะไรบ้าง</t>
+  </si>
+  <si>
+    <t>Excise</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>TOR #</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Responsible by</t>
   </si>
 </sst>
 </file>
@@ -485,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,99 +513,136 @@
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Q&A.xlsx
+++ b/docs/Q&A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24000" windowHeight="10940"/>
+    <workbookView xWindow="80" yWindow="1280" windowWidth="24000" windowHeight="10940"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Reject ยังต้องทำไหม</t>
   </si>
@@ -59,27 +59,15 @@
     <t>2.6.7.11</t>
   </si>
   <si>
-    <t>เป็น report การเตือนการเข้าใช้งานต่างพื้นที่ หมายความว่า มีการจำกัด user ให้ใช้งานได้เฉพาะบางพื้นที่ด้วยใช่ไหม</t>
-  </si>
-  <si>
     <t>2.6.7.12</t>
   </si>
   <si>
-    <t>เป็น report การเตือนการเข้าใช้งานโดยระบุอุปกรณ์ หมายความว่า มีการจำกัดบางอุปกรณ์ไม่ให้เข้าใช้งานใช่ไหม</t>
-  </si>
-  <si>
     <t>2.6.7.13</t>
   </si>
   <si>
-    <t>เป็น report การเตือนการใช้งานในเวลาที่กำหนดให้ตรวจสอบ หมายความว่า มีการจำกัดการเข้าใช้งานเป็นช่วงเวลาใช่ไหม</t>
-  </si>
-  <si>
     <t>2.7.3.6</t>
   </si>
   <si>
-    <t>User ปกติมีวันหมดอายุการใช้งานไหม</t>
-  </si>
-  <si>
     <t>2.7.11</t>
   </si>
   <si>
@@ -105,6 +93,21 @@
   </si>
   <si>
     <t>Responsible by</t>
+  </si>
+  <si>
+    <t>เป็น report การเตือนการเข้าใช้งานต่างพื้นที่ ทาง Skyhigh จะต้องทำ Database ของ terminal ต่างๆ จะเสร็จเมื่อไร</t>
+  </si>
+  <si>
+    <t>Skyhigh (Refered พี่เอ้ก)</t>
+  </si>
+  <si>
+    <t>เป็น report การเตือนการเข้าใช้งานโดยระบุอุปกรณ์ หมายความว่า ต้องมีการระบุทีละอุปกรณ์ที่ต้องการตรวจสอบใช่ไหม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เป็น report การเตือนการใช้งานในเวลาที่กำหนดให้ตรวจสอบ คือการแจ้งเตือนอะไร </t>
+  </si>
+  <si>
+    <t>การต่ออายุหมายถึง Guest เท่านั้น หมายถึงส่วนสร้าง ticket เท่านั้นใช่ไหม</t>
   </si>
 </sst>
 </file>
@@ -503,25 +506,26 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -540,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -551,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -570,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -578,65 +582,65 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Q&A.xlsx
+++ b/docs/Q&A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1280" windowWidth="24000" windowHeight="10940"/>
+    <workbookView xWindow="960" yWindow="2200" windowWidth="24000" windowHeight="10940"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A" sheetId="1" r:id="rId1"/>
@@ -30,23 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
-  <si>
-    <t>Reject ยังต้องทำไหม</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>2.7.7, 2.7.8</t>
   </si>
   <si>
-    <t>ที่เรา reject ไป เพราะต้องไปแก้ไข DPIS, e-Office</t>
-  </si>
-  <si>
     <t>2.6.7.14.2</t>
   </si>
   <si>
-    <t>ปริมาณการจราจรเครือข่าย เรา reject ไป เพราะอุปกรณ์จับไม่ได้</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
@@ -108,6 +99,30 @@
   </si>
   <si>
     <t>การต่ออายุหมายถึง Guest เท่านั้น หมายถึงส่วนสร้าง ticket เท่านั้นใช่ไหม</t>
+  </si>
+  <si>
+    <t>เนื่องจากปฏิเสธการแก้ไข DPIS, e-Office ไปแต่แรกรวมถึงเสนอ solution ทำ LDAP กลางให้ จะสรุปยังไง</t>
+  </si>
+  <si>
+    <t>เนื่องจากปริมาณการจราจรเครือข่าย Agile Controller จับไม่ได้ จะสรุปยังไงต่อ</t>
+  </si>
+  <si>
+    <t>การ integrate DPIS ตามที่เก็บ Requirement ยังต้องทำอยู่ไหม</t>
+  </si>
+  <si>
+    <t>การ integrate e-Office จะนำ Design ไป sign off กัน นัดได้วันไหน</t>
+  </si>
+  <si>
+    <t>LDAP ของ Email จะได้วันไหน (ต้องส่ง NDA)</t>
+  </si>
+  <si>
+    <t>Skyhigh</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>Concerns</t>
   </si>
 </sst>
 </file>
@@ -117,13 +132,6 @@
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -152,6 +160,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,27 +186,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -518,135 +539,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A7:D7"/>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Q&A.xlsx
+++ b/docs/Q&A.xlsx
@@ -89,9 +89,6 @@
     <t>เป็น report การเตือนการเข้าใช้งานต่างพื้นที่ ทาง Skyhigh จะต้องทำ Database ของ terminal ต่างๆ จะเสร็จเมื่อไร</t>
   </si>
   <si>
-    <t>Skyhigh (Refered พี่เอ้ก)</t>
-  </si>
-  <si>
     <t>เป็น report การเตือนการเข้าใช้งานโดยระบุอุปกรณ์ หมายความว่า ต้องมีการระบุทีละอุปกรณ์ที่ต้องการตรวจสอบใช่ไหม</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Concerns</t>
+  </si>
+  <si>
+    <t>Skyhigh ( Refer to พี่เอ้ก)</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -551,7 +551,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -578,12 +578,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -632,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -673,12 +673,12 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -694,10 +694,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
         <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
